--- a/output/df_structured.xlsx
+++ b/output/df_structured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="211">
   <si>
     <t>timestamp</t>
   </si>
@@ -337,301 +337,316 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Tesla MODEL 3', 'Others']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'TESLA MODEL Y', 'Tesla MODEL 3']</t>
+    <t>['TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Others', 'TESLA MODEL Y', 'Others', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Others', 'MINI Cooper SE', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Others', 'Audi E-TRON']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Others', 'Others', 'Others', 'Peugeot 208']</t>
-  </si>
-  <si>
-    <t>['Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'VW ID.3']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'SKODA ENYAQ 58kWh', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW E-UP', 'VW ID.3', 'Others']</t>
+    <t>['Fiat 500 E', 'VW ID.4', 'Others']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Renault ZOE', 'Others', 'TESLA MODEL Y']</t>
   </si>
   <si>
     <t>['Smart FORTWO']</t>
   </si>
   <si>
+    <t>['Others', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['SKODA ENYAQ 77kWh', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Renault TWINGO']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Hyundai KONA 39 kWh', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai IONIQ5 58kWh', 'VW ID.5']</t>
+  </si>
+  <si>
+    <t>['Others', 'Opel MOKKA', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Audi E-TRON', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Others', 'Renault TWINGO']</t>
+  </si>
+  <si>
+    <t>['KIA EV6']</t>
+  </si>
+  <si>
+    <t>['Opel CORSA', 'Others', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
     <t>['Fiat 500 E']</t>
   </si>
   <si>
-    <t>['Others', 'Others', 'Audi E-TRON', 'Polestar 2']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Fiat 500 E', 'Renault TWINGO']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 39 kWh', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Others']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Hyundai IONIQ5 58kWh', 'VW ID.5', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'Others', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Opel MOKKA', 'VW E-UP']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Fiat 500 E', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Peugeot 208']</t>
-  </si>
-  <si>
-    <t>['VW ID.3']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'VW ID.4', 'TESLA MODEL Y', 'Others']</t>
-  </si>
-  <si>
-    <t>[0.4, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.4]</t>
+    <t>['Fiat 500 E', 'Polestar 2', 'Others', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['VW ID.4']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Hyundai IONIQ5 77kWh', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.25, 0.2, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.1, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.15, 0.3, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.45, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.35, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.05, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.45]</t>
+  </si>
+  <si>
+    <t>[0.25]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.15, 0.3, 0.35]</t>
   </si>
   <si>
     <t>[0.1]</t>
   </si>
   <si>
-    <t>[0.35, 0.4, 0.15, 0.3]</t>
+    <t>[0.05, 0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25]</t>
   </si>
   <si>
     <t>[0.15]</t>
   </si>
   <si>
-    <t>[0.2, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.5, 0.3, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.1, 0.25, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.45]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.05, 0.4, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.4, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.25]</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15, 0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.7, 0.75]</t>
-  </si>
-  <si>
-    <t>[0.85, 1.0, 0.7]</t>
-  </si>
-  <si>
-    <t>[0.8]</t>
-  </si>
-  <si>
-    <t>[0.75, 0.6, 0.9, 0.7]</t>
-  </si>
-  <si>
-    <t>[0.9]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.75]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.75]</t>
-  </si>
-  <si>
-    <t>[0.95, 0.9, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.95, 0.9, 0.85, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.9, 0.95, 0.9, 0.8]</t>
-  </si>
-  <si>
-    <t>[0.95, 0.8, 0.85]</t>
-  </si>
-  <si>
-    <t>[0.7, 0.85]</t>
-  </si>
-  <si>
-    <t>[0.75]</t>
-  </si>
-  <si>
-    <t>[0.85, 0.8]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8]</t>
-  </si>
-  <si>
-    <t>[0.8, 0.95, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.95, 0.65, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.9, 0.8]</t>
-  </si>
-  <si>
-    <t>[0.85, 0.7, 1.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.65, 0.9]</t>
-  </si>
-  <si>
-    <t>[0.95]</t>
+    <t>[0.15, 0.3, 0.1, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.15, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8000000000000002, 0.8000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.8500000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.8000000000000002, 0.8500000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7000000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9500000000000003, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.65]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8500000000000002, 0.6, 0.8500000000000002]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[1.0, 0.9, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[14.999999999999996, 28.94705]</t>
-  </si>
-  <si>
-    <t>[15.599999999999998, 56.25, 14.999999999999996]</t>
-  </si>
-  <si>
-    <t>[36.8417]</t>
-  </si>
-  <si>
-    <t>[21.052400000000002, 10.526199999999998, 39.47325, 18.0]</t>
-  </si>
-  <si>
-    <t>[39.47325]</t>
-  </si>
-  <si>
-    <t>[42.104800000000004, 27.500000000000004]</t>
-  </si>
-  <si>
-    <t>[27.500000000000004, 29.0]</t>
-  </si>
-  <si>
-    <t>[23.68395, 30.0]</t>
-  </si>
-  <si>
-    <t>[16.56, 34.800000000000004, 28.94705]</t>
-  </si>
-  <si>
-    <t>[42.1048, 29.439999999999998, 34.8, 13.15775]</t>
-  </si>
-  <si>
-    <t>[12.320000000000002]</t>
-  </si>
-  <si>
-    <t>[10.8]</t>
-  </si>
-  <si>
-    <t>[31.578600000000005, 47.3679, 42.5, 41.25]</t>
-  </si>
-  <si>
-    <t>[18.784999999999997, 14.400000000000002, 9.584999999999999]</t>
-  </si>
-  <si>
-    <t>[15.599999999999998, 30.0]</t>
-  </si>
-  <si>
-    <t>[31.578599999999998]</t>
-  </si>
-  <si>
-    <t>[10.799999999999999, 36.8417]</t>
-  </si>
-  <si>
-    <t>[18.0, 7.040000000000001]</t>
-  </si>
-  <si>
-    <t>[31.900000000000002, 61.599999999999994, 18.0]</t>
-  </si>
-  <si>
-    <t>[72.25, 23.68395, 18.0]</t>
-  </si>
-  <si>
-    <t>[22.5, 23.919999999999998]</t>
-  </si>
-  <si>
-    <t>[12.059999999999999, 15.789299999999997, 44.73635]</t>
-  </si>
-  <si>
-    <t>[20.229999999999997, 10.8, 21.674999999999997]</t>
-  </si>
-  <si>
-    <t>[24.750000000000004]</t>
-  </si>
-  <si>
-    <t>[43.5]</t>
-  </si>
-  <si>
-    <t>[15.895000000000001]</t>
-  </si>
-  <si>
-    <t>[18.0, 57.75, 60.0, 42.104800000000004]</t>
+    <t>[0.9500000000000003, 0.8000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.8500000000000002, 0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.7500000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[41.25000000000002]</t>
+  </si>
+  <si>
+    <t>[42.104444444444454, 41.250000000000014, 31.578333333333337, 23.400000000000002]</t>
+  </si>
+  <si>
+    <t>[23.683750000000007, 21.675000000000004, 10.8]</t>
+  </si>
+  <si>
+    <t>[42.104444444444454, 38.25]</t>
+  </si>
+  <si>
+    <t>[26.315277777777787]</t>
+  </si>
+  <si>
+    <t>[21.052222222222227]</t>
+  </si>
+  <si>
+    <t>[18.000000000000007, 46.199999999999996, 34.20986111111112]</t>
+  </si>
+  <si>
+    <t>[18.78500000000001, 33.800000000000004, 28.946805555555567, 48.75000000000003]</t>
+  </si>
+  <si>
+    <t>[9.680000000000001]</t>
+  </si>
+  <si>
+    <t>[28.946805555555557, 17.340000000000003]</t>
+  </si>
+  <si>
+    <t>[46.20000000000002, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[37.5]</t>
+  </si>
+  <si>
+    <t>[12.880000000000004, 15.975000000000005]</t>
+  </si>
+  <si>
+    <t>[12.320000000000004, 13.650000000000004, 31.578333333333344]</t>
+  </si>
+  <si>
+    <t>[40.599999999999994, 65.45000000000002]</t>
+  </si>
+  <si>
+    <t>[21.052222222222227, 36.00000000000001, 31.578333333333347]</t>
+  </si>
+  <si>
+    <t>[34.20986111111112, 59.50000000000002, 35.000000000000014]</t>
+  </si>
+  <si>
+    <t>[10.526111111111112]</t>
+  </si>
+  <si>
+    <t>[26.315277777777784]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 36.84138888888889, 15.789166666666665, 10.650000000000006]</t>
+  </si>
+  <si>
+    <t>[66.60000000000001]</t>
+  </si>
+  <si>
+    <t>[40.500000000000014, 28.946805555555564, 11.560000000000002]</t>
+  </si>
+  <si>
+    <t>[40.000000000000014, 40.600000000000016]</t>
+  </si>
+  <si>
+    <t>[14.400000000000002]</t>
+  </si>
+  <si>
+    <t>[14.400000000000002, 41.25000000000002, 42.104444444444454, 41.25000000000002]</t>
+  </si>
+  <si>
+    <t>[42.35]</t>
+  </si>
+  <si>
+    <t>[14.450000000000006, 46.20000000000001, 25.00000000000001]</t>
+  </si>
+  <si>
+    <t>[21.052222222222227, 38.500000000000014]</t>
+  </si>
+  <si>
+    <t>[26.25000000000001]</t>
   </si>
 </sst>
 </file>
@@ -1100,19 +1115,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>41.25000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1120,19 +1135,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>138.3327777777778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1140,19 +1155,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="F8">
-        <v>43.94705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1160,19 +1175,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="F9">
-        <v>86.84999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1226,13 +1241,13 @@
         <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F12">
-        <v>36.8417</v>
+        <v>56.15875000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1246,13 +1261,13 @@
         <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F13">
-        <v>89.05185</v>
+        <v>80.35444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1280,19 +1295,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="F15">
-        <v>39.47325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1300,19 +1315,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="F16">
-        <v>69.60480000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1320,19 +1335,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
         <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F17">
-        <v>56.5</v>
+        <v>26.31527777777779</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1340,19 +1355,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>21.05222222222223</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1360,19 +1375,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>98.40986111111113</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1580,19 +1595,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>130.2818055555556</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1600,19 +1615,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>9.680000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1620,19 +1635,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="F32">
-        <v>53.68395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1640,19 +1655,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F33">
-        <v>80.30705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1700,19 +1715,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F36">
-        <v>119.50255</v>
+        <v>46.28680555555556</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1720,19 +1735,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F37">
-        <v>12.32</v>
+        <v>85.67291666666669</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1740,19 +1755,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1780,19 +1795,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1800,19 +1815,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="F41">
-        <v>162.6965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1820,19 +1835,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>28.85500000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1840,19 +1855,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>57.54833333333335</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2060,19 +2075,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>106.05</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2080,19 +2095,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>88.63055555555559</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2100,19 +2115,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="F56">
-        <v>42.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2120,19 +2135,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F57">
-        <v>45.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2160,19 +2175,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="F59">
-        <v>31.5786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2180,19 +2195,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F60">
-        <v>47.6417</v>
+        <v>128.7098611111111</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2200,19 +2215,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F61">
-        <v>25.04</v>
+        <v>10.52611111111111</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2220,19 +2235,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>26.31527777777778</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2260,19 +2275,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="F64">
-        <v>111.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2280,19 +2295,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="F65">
-        <v>113.93395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2300,19 +2315,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>100.1219444444445</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2320,19 +2335,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>66.60000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2540,19 +2555,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>81.00680555555559</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2560,19 +2575,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>80.60000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2580,19 +2595,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="F80">
-        <v>46.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2600,19 +2615,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="F81">
-        <v>72.58565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2640,19 +2655,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2660,19 +2675,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F84">
-        <v>52.705</v>
+        <v>139.0044444444445</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2680,19 +2695,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F85">
-        <v>24.75</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2700,19 +2715,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="F86">
-        <v>43.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2740,19 +2755,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="F88">
-        <v>15.895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2760,19 +2775,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="F89">
-        <v>177.8548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2780,19 +2795,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>85.65000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2800,19 +2815,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>59.55222222222224</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3000,19 +3015,19 @@
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>26.25000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_structured.xlsx
+++ b/output/df_structured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="202">
   <si>
     <t>timestamp</t>
   </si>
@@ -337,316 +337,289 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['Others', 'TESLA MODEL Y', 'Others', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Others', 'MINI Cooper SE', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Others', 'Audi E-TRON']</t>
+    <t>['Fiat 500 E', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Audi E-TRON', 'Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'VW E-UP', 'Others', 'Polestar 2', 'SKODA ENYAQ 58kWh']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'VW ID.5', 'Others', 'Opel MOKKA']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Fiat 500 E', 'VW ID.4', 'Others']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Renault ZOE', 'Others', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Others', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 77kWh', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Renault TWINGO']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO', 'Hyundai KONA 39 kWh', 'Others']</t>
-  </si>
-  <si>
-    <t>['Hyundai IONIQ5 58kWh', 'VW ID.5']</t>
-  </si>
-  <si>
-    <t>['Others', 'Opel MOKKA', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Audi E-TRON', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'Others', 'Renault TWINGO']</t>
-  </si>
-  <si>
-    <t>['KIA EV6']</t>
-  </si>
-  <si>
-    <t>['Opel CORSA', 'Others', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Hyundai IONIQ5 58kWh']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Polestar 2', 'Others', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['VW ID.4']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Hyundai IONIQ5 77kWh', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW ID.4']</t>
+    <t>['VW ID.4', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'Hyundai IONIQ5 77kWh']</t>
+  </si>
+  <si>
+    <t>['Opel CORSA', 'Hyundai IONIQ5 58kWh', 'Others', 'Renault ZOE', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Smart FORTWO', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['VW ID.5']</t>
+  </si>
+  <si>
+    <t>['VW ID.5', 'Opel MOKKA']</t>
+  </si>
+  <si>
+    <t>['Opel MOKKA', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Tesla MODEL 3', 'VW E-UP', 'Others']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Others', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Others']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['VW ID.3']</t>
+  </si>
+  <si>
+    <t>['Opel CORSA']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Others', 'Hyundai KONA 39 kWh', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Fiat 500 E', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE']</t>
+  </si>
+  <si>
+    <t>[0.4, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.25, 0.4999999999999999]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.3, 0.1, 0.25, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.3, 0.1, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.3]</t>
   </si>
   <si>
     <t>[0.4]</t>
   </si>
   <si>
-    <t>[0.05, 0.25, 0.2, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.2]</t>
+    <t>[0.35, 0.2, 0.2, 0.1, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.4, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.25]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.4, 0.2, 0.35, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.15, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2]</t>
   </si>
   <si>
     <t>[0.35]</t>
   </si>
   <si>
-    <t>[0.3]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.4, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.15, 0.3, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.45, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.35, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.05, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.45]</t>
-  </si>
-  <si>
-    <t>[0.25]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.15, 0.3, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.25, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.15]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.3, 0.1, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.15, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.45]</t>
+    <t>[0.4, 0.1, 0.2, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.3, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9500000000000003, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.8500000000000002, 0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.65, 1.0, 0.7000000000000001]</t>
   </si>
   <si>
     <t>[0.9500000000000003]</t>
   </si>
   <si>
-    <t>[0.8500000000000002, 0.8000000000000002, 0.8000000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.8500000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.65]</t>
+    <t>[1.0, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.7000000000000001, 0.6, 0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001, 0.8500000000000002, 0.7000000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7000000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.8000000000000002]</t>
   </si>
   <si>
     <t>[0.8500000000000002]</t>
   </si>
   <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
     <t>[0.7000000000000001]</t>
   </si>
   <si>
-    <t>[0.8500000000000002, 1.0, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.8000000000000002, 0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.7000000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.65]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8500000000000002, 0.6, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.8000000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8500000000000002, 0.9000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.7500000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[41.25000000000002]</t>
-  </si>
-  <si>
-    <t>[42.104444444444454, 41.250000000000014, 31.578333333333337, 23.400000000000002]</t>
-  </si>
-  <si>
-    <t>[23.683750000000007, 21.675000000000004, 10.8]</t>
-  </si>
-  <si>
-    <t>[42.104444444444454, 38.25]</t>
-  </si>
-  <si>
-    <t>[26.315277777777787]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227]</t>
-  </si>
-  <si>
-    <t>[18.000000000000007, 46.199999999999996, 34.20986111111112]</t>
-  </si>
-  <si>
-    <t>[18.78500000000001, 33.800000000000004, 28.946805555555567, 48.75000000000003]</t>
-  </si>
-  <si>
-    <t>[9.680000000000001]</t>
-  </si>
-  <si>
-    <t>[28.946805555555557, 17.340000000000003]</t>
-  </si>
-  <si>
-    <t>[46.20000000000002, 39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[37.5]</t>
-  </si>
-  <si>
-    <t>[12.880000000000004, 15.975000000000005]</t>
-  </si>
-  <si>
-    <t>[12.320000000000004, 13.650000000000004, 31.578333333333344]</t>
-  </si>
-  <si>
-    <t>[40.599999999999994, 65.45000000000002]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227, 36.00000000000001, 31.578333333333347]</t>
-  </si>
-  <si>
-    <t>[34.20986111111112, 59.50000000000002, 35.000000000000014]</t>
-  </si>
-  <si>
-    <t>[10.526111111111112]</t>
-  </si>
-  <si>
-    <t>[26.315277777777784]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 36.84138888888889, 15.789166666666665, 10.650000000000006]</t>
-  </si>
-  <si>
-    <t>[66.60000000000001]</t>
-  </si>
-  <si>
-    <t>[40.500000000000014, 28.946805555555564, 11.560000000000002]</t>
-  </si>
-  <si>
-    <t>[40.000000000000014, 40.600000000000016]</t>
-  </si>
-  <si>
-    <t>[14.400000000000002]</t>
-  </si>
-  <si>
-    <t>[14.400000000000002, 41.25000000000002, 42.104444444444454, 41.25000000000002]</t>
-  </si>
-  <si>
-    <t>[42.35]</t>
-  </si>
-  <si>
-    <t>[14.450000000000006, 46.20000000000001, 25.00000000000001]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227, 38.500000000000014]</t>
-  </si>
-  <si>
-    <t>[26.25000000000001]</t>
+    <t>[8.400000000000002, 36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[39.47291666666666, 59.50000000000002, 11.70000000000001]</t>
+  </si>
+  <si>
+    <t>[29.0, 20.24000000000001, 39.47291666666668, 52.50000000000002, 29.000000000000014]</t>
+  </si>
+  <si>
+    <t>[46.400000000000006, 26.950000000000003, 47.3675, 20.250000000000004]</t>
+  </si>
+  <si>
+    <t>[39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[61.6, 28.946805555555564]</t>
+  </si>
+  <si>
+    <t>[32.00000000000001, 42.35000000000002]</t>
+  </si>
+  <si>
+    <t>[13.157638888888888]</t>
+  </si>
+  <si>
+    <t>[15.750000000000004, 29.0, 21.05222222222222, 44.20000000000002, 42.50000000000002]</t>
+  </si>
+  <si>
+    <t>[33.800000000000004, 10.56]</t>
+  </si>
+  <si>
+    <t>[9.600000000000003, 9.680000000000005, 63.75000000000002]</t>
+  </si>
+  <si>
+    <t>[50.05000000000002]</t>
+  </si>
+  <si>
+    <t>[30.800000000000004, 29.25]</t>
+  </si>
+  <si>
+    <t>[15.750000000000004, 23.400000000000002]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 18.420694444444447, 32.50000000000001, 12.880000000000003, 36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[30.000000000000004, 28.946805555555557, 27.500000000000014]</t>
+  </si>
+  <si>
+    <t>[18.75, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[14.450000000000006, 45.00000000000001]</t>
+  </si>
+  <si>
+    <t>[40.60000000000001]</t>
+  </si>
+  <si>
+    <t>[22.50000000000001]</t>
+  </si>
+  <si>
+    <t>[22.98, 39.47291666666668, 23.400000000000002, 14.400000000000007]</t>
+  </si>
+  <si>
+    <t>[39.47291666666668, 34.20986111111113]</t>
+  </si>
+  <si>
+    <t>[23.400000000000002, 13.200000000000006, 10.560000000000006]</t>
+  </si>
+  <si>
+    <t>[23.400000000000002]</t>
   </si>
 </sst>
 </file>
@@ -1115,19 +1088,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="F6">
-        <v>41.25000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1135,19 +1108,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="F7">
-        <v>138.3327777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1155,19 +1128,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>45.24138888888889</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1175,19 +1148,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>110.6729166666667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1235,19 +1208,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="F12">
-        <v>56.15875000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1255,19 +1228,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F13">
-        <v>80.35444444444445</v>
+        <v>170.2129166666667</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1315,19 +1288,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>140.9675</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1338,16 +1311,16 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F17">
-        <v>26.31527777777779</v>
+        <v>39.47291666666668</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1355,19 +1328,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F18">
-        <v>21.05222222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1375,19 +1348,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="F19">
-        <v>98.40986111111113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1595,19 +1568,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="F30">
-        <v>130.2818055555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1615,19 +1588,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="F31">
-        <v>9.680000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1635,19 +1608,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>90.54680555555557</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1655,19 +1628,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>74.35000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1675,19 +1648,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>13.15763888888889</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1715,19 +1688,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="F36">
-        <v>46.28680555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1735,19 +1708,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F37">
-        <v>85.67291666666669</v>
+        <v>152.5022222222223</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1755,19 +1728,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F38">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1795,19 +1768,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>44.36000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1815,19 +1788,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>83.03000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1835,19 +1808,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="F42">
-        <v>28.85500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1855,19 +1828,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="F43">
-        <v>57.54833333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2075,19 +2048,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="F54">
-        <v>106.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2095,19 +2068,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F55">
-        <v>88.63055555555559</v>
+        <v>50.05000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2115,19 +2088,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>60.05</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2135,19 +2108,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>39.15000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2195,19 +2168,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F60">
-        <v>128.7098611111111</v>
+        <v>137.4834722222222</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2215,19 +2188,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="F61">
-        <v>10.52611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2235,19 +2208,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="F62">
-        <v>26.31527777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2275,19 +2248,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>86.44680555555557</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2295,19 +2268,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>50.32833333333333</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2315,19 +2288,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="F66">
-        <v>100.1219444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2335,19 +2308,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="F67">
-        <v>66.60000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2555,19 +2528,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="F78">
-        <v>81.00680555555559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2575,19 +2548,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F79">
-        <v>80.60000000000002</v>
+        <v>42.10444444444445</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2595,19 +2568,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>36.84138888888889</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2615,19 +2588,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>59.45000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2635,19 +2608,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>40.60000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2655,19 +2628,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="F83">
-        <v>14.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2675,19 +2648,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F84">
-        <v>139.0044444444445</v>
+        <v>22.50000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2695,19 +2668,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F85">
-        <v>42.35</v>
+        <v>100.2529166666667</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2755,19 +2728,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>73.6827777777778</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2775,19 +2748,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>47.16000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2798,16 +2771,16 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F90">
-        <v>85.65000000000003</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2815,19 +2788,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="F91">
-        <v>59.55222222222224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3015,19 +2988,19 @@
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="F101">
-        <v>26.25000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_structured.xlsx
+++ b/output/df_structured.xlsx
@@ -337,289 +337,289 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Fiat 500 E', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Audi E-TRON', 'Hyundai KONA 39 kWh']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'VW E-UP', 'Others', 'Polestar 2', 'SKODA ENYAQ 58kWh']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'VW ID.5', 'Others', 'Opel MOKKA']</t>
-  </si>
-  <si>
-    <t>['Others']</t>
-  </si>
-  <si>
-    <t>['VW ID.4', 'Others']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh', 'Hyundai IONIQ5 77kWh']</t>
-  </si>
-  <si>
-    <t>['Opel CORSA', 'Hyundai IONIQ5 58kWh', 'Others', 'Renault ZOE', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Smart FORTWO', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['VW ID.5']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Opel MOKKA']</t>
-  </si>
-  <si>
-    <t>['Opel MOKKA', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'Tesla MODEL 3', 'VW E-UP', 'Others']</t>
+    <t>['Audi E-TRON', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['VW ID.4', 'Audi Q4', 'Others']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Others', 'Fiat 500 E', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['KIA EV6']</t>
   </si>
   <si>
     <t>['Tesla MODEL 3', 'Others', 'Tesla MODEL 3']</t>
   </si>
   <si>
-    <t>['TESLA MODEL Y', 'Others']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['VW ID.3']</t>
-  </si>
-  <si>
-    <t>['Opel CORSA']</t>
-  </si>
-  <si>
-    <t>['Audi Q4', 'Others', 'Hyundai KONA 39 kWh', 'Fiat 500 E']</t>
+    <t>['Audi Q4', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Renault TWINGO', 'Tesla MODEL 3', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'VW ID.5', 'KIA EV6']</t>
   </si>
   <si>
     <t>['Others', 'Others']</t>
   </si>
   <si>
-    <t>['Renault ZOE', 'Fiat 500 E', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE']</t>
-  </si>
-  <si>
-    <t>[0.4, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.25, 0.4999999999999999]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.3, 0.1, 0.25, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3, 0.1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.3]</t>
+    <t>['VW ID.5', 'Others']</t>
+  </si>
+  <si>
+    <t>['Polestar 2', 'Others', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Hyundai IONIQ5 77kWh', 'Peugeot 208', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Dacia SPRING']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Others', 'Renault TWINGO']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Others']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Fiat 500 E', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Renault ZOE', 'Others']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'SKODA ENYAQ 77kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW E-UP', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['KIA EV6', 'Tesla MODEL 3', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.15, 0.3]</t>
   </si>
   <si>
     <t>[0.4]</t>
   </si>
   <si>
-    <t>[0.35, 0.2, 0.2, 0.1, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.4, 0.1]</t>
+    <t>[0.35, 0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.45, 0.45, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3, 0.05]</t>
   </si>
   <si>
     <t>[0.25]</t>
   </si>
   <si>
-    <t>[0.3, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.4, 0.2, 0.35, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.15, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.35]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.1, 0.2, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.3, 0.3]</t>
+    <t>[0.4, 0.25, 0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.15, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.3, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.05, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.25, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.3, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.6]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9000000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.7500000000000001, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.65, 0.8500000000000002]</t>
   </si>
   <si>
     <t>[0.7500000000000001, 0.8500000000000002]</t>
   </si>
   <si>
-    <t>[1.0, 0.9500000000000003, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.8500000000000002, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.65, 1.0, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8000000000000002]</t>
+    <t>[0.9000000000000002, 0.9500000000000003, 0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.8500000000000002, 0.9500000000000003]</t>
   </si>
   <si>
     <t>[0.65]</t>
   </si>
   <si>
-    <t>[0.7000000000000001, 0.7000000000000001, 0.6, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.7500000000000001, 0.8500000000000002, 0.7000000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.7000000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.8000000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[8.400000000000002, 36.84138888888889]</t>
-  </si>
-  <si>
-    <t>[39.47291666666666, 59.50000000000002, 11.70000000000001]</t>
-  </si>
-  <si>
-    <t>[29.0, 20.24000000000001, 39.47291666666668, 52.50000000000002, 29.000000000000014]</t>
-  </si>
-  <si>
-    <t>[46.400000000000006, 26.950000000000003, 47.3675, 20.250000000000004]</t>
-  </si>
-  <si>
-    <t>[39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[61.6, 28.946805555555564]</t>
-  </si>
-  <si>
-    <t>[32.00000000000001, 42.35000000000002]</t>
-  </si>
-  <si>
-    <t>[13.157638888888888]</t>
-  </si>
-  <si>
-    <t>[15.750000000000004, 29.0, 21.05222222222222, 44.20000000000002, 42.50000000000002]</t>
-  </si>
-  <si>
-    <t>[33.800000000000004, 10.56]</t>
-  </si>
-  <si>
-    <t>[9.600000000000003, 9.680000000000005, 63.75000000000002]</t>
-  </si>
-  <si>
-    <t>[50.05000000000002]</t>
-  </si>
-  <si>
-    <t>[30.800000000000004, 29.25]</t>
-  </si>
-  <si>
-    <t>[15.750000000000004, 23.400000000000002]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 18.420694444444447, 32.50000000000001, 12.880000000000003, 36.84138888888889]</t>
-  </si>
-  <si>
-    <t>[30.000000000000004, 28.946805555555557, 27.500000000000014]</t>
-  </si>
-  <si>
-    <t>[18.75, 31.578333333333337]</t>
-  </si>
-  <si>
-    <t>[42.104444444444454]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889]</t>
-  </si>
-  <si>
-    <t>[14.450000000000006, 45.00000000000001]</t>
-  </si>
-  <si>
-    <t>[40.60000000000001]</t>
-  </si>
-  <si>
-    <t>[22.50000000000001]</t>
-  </si>
-  <si>
-    <t>[22.98, 39.47291666666668, 23.400000000000002, 14.400000000000007]</t>
-  </si>
-  <si>
-    <t>[39.47291666666668, 34.20986111111113]</t>
-  </si>
-  <si>
-    <t>[23.400000000000002, 13.200000000000006, 10.560000000000006]</t>
-  </si>
-  <si>
-    <t>[23.400000000000002]</t>
+    <t>[0.9500000000000003, 0.9500000000000003, 0.8000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7000000000000001, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7500000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.9500000000000003, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.9000000000000002, 0.6]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[46.75000000000001, 17.5]</t>
+  </si>
+  <si>
+    <t>[38.500000000000014, 57.45000000000001, 23.683750000000007]</t>
+  </si>
+  <si>
+    <t>[12.000000000000005]</t>
+  </si>
+  <si>
+    <t>[18.420694444444447, 13.200000000000001, 68.00000000000003]</t>
+  </si>
+  <si>
+    <t>[40.70000000000002]</t>
+  </si>
+  <si>
+    <t>[42.5, 15.789166666666668, 35.00000000000001]</t>
+  </si>
+  <si>
+    <t>[38.300000000000004, 36.400000000000006]</t>
+  </si>
+  <si>
+    <t>[12.780000000000006, 25.00000000000001, 18.42069444444445, 26.315277777777787]</t>
+  </si>
+  <si>
+    <t>[20.400000000000006]</t>
+  </si>
+  <si>
+    <t>[41.60000000000001, 50.050000000000004, 48.10000000000001]</t>
+  </si>
+  <si>
+    <t>[47.3675, 31.578333333333344]</t>
+  </si>
+  <si>
+    <t>[50.050000000000026, 44.73597222222224]</t>
+  </si>
+  <si>
+    <t>[33.75000000000001, 28.946805555555567, 52.20000000000002]</t>
+  </si>
+  <si>
+    <t>[10.72]</t>
+  </si>
+  <si>
+    <t>[20.24000000000001, 53.90000000000002, 24.750000000000007, 34.80000000000002]</t>
+  </si>
+  <si>
+    <t>[44.735972222222216, 13.400000000000006]</t>
+  </si>
+  <si>
+    <t>[14.960000000000004, 28.946805555555557, 11.715000000000005]</t>
+  </si>
+  <si>
+    <t>[31.2, 34.20986111111111]</t>
+  </si>
+  <si>
+    <t>[45.00000000000002, 13.200000000000001, 15.600000000000003]</t>
+  </si>
+  <si>
+    <t>[33.800000000000004, 33.80000000000002, 31.57833333333333]</t>
+  </si>
+  <si>
+    <t>[33.800000000000004, 44.73597222222223, 26.315277777777776]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 46.199999999999996]</t>
+  </si>
+  <si>
+    <t>[28.946805555555567, 22.080000000000005, 13.200000000000006]</t>
+  </si>
+  <si>
+    <t>[13.157638888888888, 15.789166666666668]</t>
+  </si>
+  <si>
+    <t>[62.90000000000001, 27.500000000000014, 30.00000000000001]</t>
   </si>
 </sst>
 </file>
@@ -1134,13 +1134,13 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F8">
-        <v>45.24138888888889</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F9">
-        <v>110.6729166666667</v>
+        <v>119.63375</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1208,19 +1208,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>12.00000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1228,19 +1228,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F13">
-        <v>170.2129166666667</v>
+        <v>99.62069444444447</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1248,19 +1248,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>40.70000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1288,19 +1288,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F16">
-        <v>140.9675</v>
+        <v>93.28916666666667</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1308,19 +1308,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F17">
-        <v>39.47291666666668</v>
+        <v>74.70000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1608,19 +1608,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F32">
-        <v>90.54680555555557</v>
+        <v>82.51597222222225</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1628,19 +1628,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F33">
-        <v>74.35000000000002</v>
+        <v>20.40000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1648,19 +1648,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="F34">
-        <v>13.15763888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1688,19 +1688,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>139.75</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1708,19 +1708,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F37">
-        <v>152.5022222222223</v>
+        <v>78.94583333333334</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1768,19 +1768,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F40">
-        <v>44.36000000000001</v>
+        <v>94.78597222222226</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1788,19 +1788,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F41">
-        <v>83.03000000000003</v>
+        <v>114.8968055555556</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2068,19 +2068,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F55">
-        <v>50.05000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2088,19 +2088,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
         <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F56">
-        <v>60.05</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2108,19 +2108,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
         <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F57">
-        <v>39.15000000000001</v>
+        <v>133.6900000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2168,19 +2168,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
         <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F60">
-        <v>137.4834722222222</v>
+        <v>58.13597222222222</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2188,19 +2188,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>55.62180555555557</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2248,19 +2248,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F64">
-        <v>86.44680555555557</v>
+        <v>65.40986111111111</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2268,19 +2268,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F65">
-        <v>50.32833333333333</v>
+        <v>73.80000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2548,19 +2548,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F79">
-        <v>42.10444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2568,19 +2568,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F80">
-        <v>36.84138888888889</v>
+        <v>99.17833333333336</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2588,19 +2588,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F81">
-        <v>59.45000000000002</v>
+        <v>104.85125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2608,19 +2608,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="F82">
-        <v>40.60000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2648,19 +2648,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F84">
-        <v>22.50000000000001</v>
+        <v>77.77833333333334</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2668,19 +2668,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F85">
-        <v>100.2529166666667</v>
+        <v>64.22680555555557</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2728,19 +2728,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F88">
-        <v>73.6827777777778</v>
+        <v>28.94680555555556</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2748,19 +2748,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F89">
-        <v>47.16000000000001</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2768,19 +2768,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="F90">
-        <v>23.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">

--- a/output/df_structured.xlsx
+++ b/output/df_structured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="242">
   <si>
     <t>timestamp</t>
   </si>
@@ -34,592 +34,712 @@
     <t>total power</t>
   </si>
   <si>
-    <t>2023-10-01 01:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 02:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 03:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 04:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 05:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 06:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 10:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 13:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 14:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 15:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 16:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 19:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 20:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 21:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 22:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 23:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 00:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 01:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 02:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 03:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 04:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 05:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 06:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 09:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 10:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 13:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 14:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 15:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 16:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 20:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 21:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 22:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 23:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 00:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 01:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 02:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 03:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 04:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 05:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 06:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 09:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 10:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 13:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 14:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 15:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 18:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 19:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 20:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 21:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 22:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 23:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 00:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 01:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 02:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 03:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 04:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 05:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 09:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 10:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 14:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 15:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 16:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 19:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 20:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 21:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 22:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 23:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 00:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 01:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 02:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 03:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 04:00</t>
+    <t>2022-02-17 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 04:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 05:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 06:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 09:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 10:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 13:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 14:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 15:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 17:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 21:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 22:00</t>
+  </si>
+  <si>
+    <t>2022-02-17 23:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 00:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 04:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 05:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 06:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 09:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 10:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 11:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 13:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 14:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 15:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 16:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 17:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 21:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 22:00</t>
+  </si>
+  <si>
+    <t>2022-02-18 23:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 00:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 04:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 05:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 06:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 10:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 14:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 21:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 22:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 23:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 00:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 04:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 05:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 06:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 09:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 10:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 11:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 13:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 14:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 15:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 16:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 17:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 21:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 22:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 23:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 00:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 04:00</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Audi E-TRON', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['VW ID.4', 'Audi Q4', 'Others']</t>
+    <t>['Others']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING', 'Hyundai IONIQ5 58kWh', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW E-UP']</t>
+  </si>
+  <si>
+    <t>['Others', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'Others', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'Others', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW ID.4']</t>
+  </si>
+  <si>
+    <t>['VW ID.4', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'VW E-UP']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Hyundai KONA 64 kWh', 'MINI Cooper SE', 'Opel CORSA']</t>
+  </si>
+  <si>
+    <t>['Audi Q4']</t>
+  </si>
+  <si>
+    <t>['Others', 'Fiat 500 E', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Others']</t>
+  </si>
+  <si>
+    <t>['KIA EV6', 'VW E-UP']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'VW ID.5']</t>
+  </si>
+  <si>
+    <t>['KIA EV6', 'Others']</t>
   </si>
   <si>
     <t>['Fiat 500 E']</t>
   </si>
   <si>
-    <t>['Others', 'Fiat 500 E', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['KIA EV6']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Audi Q4', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Renault TWINGO', 'Tesla MODEL 3', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh', 'VW ID.5', 'KIA EV6']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Others']</t>
-  </si>
-  <si>
-    <t>['Polestar 2', 'Others', 'Hyundai IONIQ5 58kWh']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Hyundai IONIQ5 77kWh', 'Peugeot 208', 'Hyundai IONIQ5 58kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'Dacia SPRING']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO', 'Others', 'Renault TWINGO']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Others']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Fiat 500 E', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Renault ZOE', 'Others']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'SKODA ENYAQ 77kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW E-UP', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['KIA EV6', 'Tesla MODEL 3', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>[0.15, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.15, 0.3]</t>
+    <t>['Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Peugeot 208']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['VW ID.3']</t>
+  </si>
+  <si>
+    <t>['Others', 'SKODA ENYAQ 77kWh', 'Others', 'Fiat 500 E', 'KIA EV6', 'Others']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'TESLA MODEL Y', 'Fiat 500 E', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.35, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.25]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.4999999999999999]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.25, 0.05, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.25, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.2, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.15]</t>
   </si>
   <si>
     <t>[0.4]</t>
   </si>
   <si>
-    <t>[0.35, 0.2, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.35, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.45, 0.45, 0.45]</t>
+    <t>[0.3, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.4999999999999999, 0.3, 0.3, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.2, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.4, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.05, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.05, 0.25, 0.25, 0.05]</t>
   </si>
   <si>
     <t>[0.1]</t>
   </si>
   <si>
-    <t>[0.15, 0.35, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.3, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.25, 0.25, 0.3]</t>
+    <t>[0.05, 0.35, 0.35, 0.35]</t>
   </si>
   <si>
     <t>[0.15, 0.35]</t>
   </si>
   <si>
-    <t>[0.05, 0.15, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.05, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.25, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.6]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.9000000000000002, 0.7500000000000001]</t>
+    <t>[0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[1.0]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8000000000000002, 0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8000000000000002, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.65, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9000000000000002, 0.8500000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.6]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.9000000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8000000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7000000000000001, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001, 0.9500000000000003]</t>
   </si>
   <si>
     <t>[0.9000000000000002]</t>
   </si>
   <si>
-    <t>[0.7000000000000001, 0.7500000000000001, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.65, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.9500000000000003, 0.8000000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 1.0, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.65]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9500000000000003, 0.8000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.7000000000000001, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.7500000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9500000000000003, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9000000000000002, 0.6]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8500000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8500000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[46.75000000000001, 17.5]</t>
-  </si>
-  <si>
-    <t>[38.500000000000014, 57.45000000000001, 23.683750000000007]</t>
-  </si>
-  <si>
-    <t>[12.000000000000005]</t>
-  </si>
-  <si>
-    <t>[18.420694444444447, 13.200000000000001, 68.00000000000003]</t>
-  </si>
-  <si>
-    <t>[40.70000000000002]</t>
-  </si>
-  <si>
-    <t>[42.5, 15.789166666666668, 35.00000000000001]</t>
-  </si>
-  <si>
-    <t>[38.300000000000004, 36.400000000000006]</t>
-  </si>
-  <si>
-    <t>[12.780000000000006, 25.00000000000001, 18.42069444444445, 26.315277777777787]</t>
-  </si>
-  <si>
-    <t>[20.400000000000006]</t>
-  </si>
-  <si>
-    <t>[41.60000000000001, 50.050000000000004, 48.10000000000001]</t>
-  </si>
-  <si>
-    <t>[47.3675, 31.578333333333344]</t>
-  </si>
-  <si>
-    <t>[50.050000000000026, 44.73597222222224]</t>
-  </si>
-  <si>
-    <t>[33.75000000000001, 28.946805555555567, 52.20000000000002]</t>
-  </si>
-  <si>
-    <t>[10.72]</t>
-  </si>
-  <si>
-    <t>[20.24000000000001, 53.90000000000002, 24.750000000000007, 34.80000000000002]</t>
-  </si>
-  <si>
-    <t>[44.735972222222216, 13.400000000000006]</t>
-  </si>
-  <si>
-    <t>[14.960000000000004, 28.946805555555557, 11.715000000000005]</t>
-  </si>
-  <si>
-    <t>[31.2, 34.20986111111111]</t>
-  </si>
-  <si>
-    <t>[45.00000000000002, 13.200000000000001, 15.600000000000003]</t>
-  </si>
-  <si>
-    <t>[33.800000000000004, 33.80000000000002, 31.57833333333333]</t>
-  </si>
-  <si>
-    <t>[33.800000000000004, 44.73597222222223, 26.315277777777776]</t>
-  </si>
-  <si>
-    <t>[31.578333333333337, 46.199999999999996]</t>
-  </si>
-  <si>
-    <t>[28.946805555555567, 22.080000000000005, 13.200000000000006]</t>
-  </si>
-  <si>
-    <t>[13.157638888888888, 15.789166666666668]</t>
-  </si>
-  <si>
-    <t>[62.90000000000001, 27.500000000000014, 30.00000000000001]</t>
+    <t>[0.8000000000000002, 0.6, 0.65, 0.8000000000000002, 0.7500000000000001, 1.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.7000000000000001, 0.8000000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[21.674999999999997, 15.895000000000007]</t>
+  </si>
+  <si>
+    <t>[20.100000000000005, 31.900000000000016, 15.789166666666668]</t>
+  </si>
+  <si>
+    <t>[39.47291666666666]</t>
+  </si>
+  <si>
+    <t>[29.439999999999998]</t>
+  </si>
+  <si>
+    <t>[34.20986111111112, 7.800000000000007]</t>
+  </si>
+  <si>
+    <t>[35.20000000000002, 28.946805555555564, 44.73597222222223, 42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[34.20986111111112]</t>
+  </si>
+  <si>
+    <t>[17.500000000000004, 18.420694444444447]</t>
+  </si>
+  <si>
+    <t>[51.20000000000002, 28.946805555555564, 37.7]</t>
+  </si>
+  <si>
+    <t>[30.00000000000001]</t>
+  </si>
+  <si>
+    <t>[17.550000000000004]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 34.20986111111113]</t>
+  </si>
+  <si>
+    <t>[13.400000000000006, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[38.500000000000014]</t>
+  </si>
+  <si>
+    <t>[50.05000000000002, 20.800000000000008]</t>
+  </si>
+  <si>
+    <t>[28.946805555555567, 23.68375, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[13.200000000000006, 23.92]</t>
+  </si>
+  <si>
+    <t>[68.00000000000003]</t>
+  </si>
+  <si>
+    <t>[38.250000000000014]</t>
+  </si>
+  <si>
+    <t>[10.115, 52.500000000000014]</t>
+  </si>
+  <si>
+    <t>[20.000000000000018, 38.40000000000002, 15.895000000000007, 22.50000000000001]</t>
+  </si>
+  <si>
+    <t>[31.578333333333344]</t>
+  </si>
+  <si>
+    <t>[26.809999999999995]</t>
+  </si>
+  <si>
+    <t>[15.789166666666668, 19.200000000000006, 10.560000000000002]</t>
+  </si>
+  <si>
+    <t>[42.13, 28.946805555555567]</t>
+  </si>
+  <si>
+    <t>[20.0]</t>
+  </si>
+  <si>
+    <t>[40.7, 18.400000000000002]</t>
+  </si>
+  <si>
+    <t>[13.200000000000001, 53.90000000000001]</t>
+  </si>
+  <si>
+    <t>[59.20000000000002, 42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[23.683750000000003, 31.578333333333337, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[36.8413888888889, 15.789166666666668, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[9.600000000000001]</t>
+  </si>
+  <si>
+    <t>[7.040000000000002]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 36.84138888888889, 40.500000000000014]</t>
+  </si>
+  <si>
+    <t>[11.440000000000001, 37.500000000000014]</t>
+  </si>
+  <si>
+    <t>[34.80000000000002]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 26.95, 31.57833333333333, 13.200000000000003, 37.00000000000001, 49.999027777777776]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[40.60000000000001]</t>
+  </si>
+  <si>
+    <t>[22.799999999999997, 26.250000000000007, 10.800000000000004, 38.500000000000014]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 18.420694444444447]</t>
   </si>
 </sst>
 </file>
@@ -1108,19 +1228,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>39.47291666666668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1128,19 +1248,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F8">
-        <v>64.25</v>
+        <v>37.57000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1148,19 +1268,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F9">
-        <v>119.63375</v>
+        <v>67.78916666666669</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1168,19 +1288,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>39.47291666666666</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1188,19 +1308,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1208,19 +1328,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="F12">
-        <v>12.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1228,19 +1348,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F13">
-        <v>99.62069444444447</v>
+        <v>42.00986111111112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1248,19 +1368,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F14">
-        <v>40.70000000000002</v>
+        <v>150.9872222222223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1288,19 +1408,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="F16">
-        <v>93.28916666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1308,19 +1428,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F17">
-        <v>74.70000000000002</v>
+        <v>34.20986111111112</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1328,19 +1448,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>35.92069444444445</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1348,19 +1468,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>117.8468055555556</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1368,19 +1488,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>30.00000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1588,19 +1708,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1608,19 +1728,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="F32">
-        <v>82.51597222222225</v>
+        <v>65.78819444444447</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1628,19 +1748,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F33">
-        <v>20.40000000000001</v>
+        <v>52.87291666666668</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1648,19 +1768,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>38.50000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1668,19 +1788,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>70.85000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1688,19 +1808,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="F36">
-        <v>139.75</v>
+        <v>92.10347222222225</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1708,19 +1828,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="F37">
-        <v>78.94583333333334</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1728,19 +1848,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>68.00000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1768,19 +1888,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>94.78597222222226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1788,19 +1908,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="F41">
-        <v>114.8968055555556</v>
+        <v>38.25000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1808,19 +1928,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>62.61500000000002</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1828,19 +1948,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>96.79500000000006</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2048,19 +2168,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>31.57833333333334</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2068,19 +2188,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2088,19 +2208,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="F56">
-        <v>10.72</v>
+        <v>45.54916666666668</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2108,19 +2228,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F57">
-        <v>133.6900000000001</v>
+        <v>71.07680555555557</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2148,19 +2268,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2168,19 +2288,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F60">
-        <v>58.13597222222222</v>
+        <v>59.10000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2188,19 +2308,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="F61">
-        <v>55.62180555555557</v>
+        <v>67.10000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2208,19 +2328,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>101.3044444444445</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2248,19 +2368,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="F64">
-        <v>65.40986111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2268,19 +2388,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="F65">
-        <v>73.80000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2288,19 +2408,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>86.84041666666667</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2308,19 +2428,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>92.10347222222225</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2348,19 +2468,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>9.600000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2528,19 +2648,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>7.040000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2568,19 +2688,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="F80">
-        <v>99.17833333333336</v>
+        <v>108.9197222222222</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2588,19 +2708,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F81">
-        <v>104.85125</v>
+        <v>48.94000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2608,19 +2728,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>34.80000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2648,19 +2768,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="F84">
-        <v>77.77833333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2668,19 +2788,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="F85">
-        <v>64.22680555555557</v>
+        <v>190.3056944444444</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2688,19 +2808,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>36.84138888888889</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2728,19 +2848,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="F88">
-        <v>28.94680555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2748,19 +2868,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F89">
-        <v>120.4</v>
+        <v>40.60000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2768,19 +2888,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>98.35000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2788,19 +2908,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>49.99902777777778</v>
       </c>
     </row>
     <row r="92" spans="1:6">

--- a/output/df_structured.xlsx
+++ b/output/df_structured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="194">
   <si>
     <t>timestamp</t>
   </si>
@@ -334,301 +334,268 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Others', 'Others', 'Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 58kWh', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Opel CORSA', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 77kWh', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Dacia SPRING']</t>
-  </si>
-  <si>
-    <t>['Others', 'Tesla MODEL 3', 'Audi Q4']</t>
+    <t>['Others', 'VW E-UP', 'Others', 'VW E-UP']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['SKODA ENYAQ 58kWh', 'VW ID.5']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'MINI Cooper SE', 'VW ID.5']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Renault TWINGO', 'Audi Q4', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Others', 'Audi Q4']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Smart FORTWO', 'Audi E-TRON', 'Smart FORTWO', 'Hyundai KONA 39 kWh']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'Dacia SPRING', 'SKODA ENYAQ 77kWh']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Hyundai IONIQ5 77kWh']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Dacia SPRING']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'Hyundai IONIQ5 77kWh']</t>
-  </si>
-  <si>
-    <t>[0.4, 0.2, 0.3, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.25]</t>
+    <t>['Fiat 500 E', 'TESLA MODEL Y', 'KIA EV6', 'Opel CORSA']</t>
+  </si>
+  <si>
+    <t>['Opel MOKKA', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'MINI Cooper SE', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Dacia SPRING', 'Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Hyundai IONIQ5 58kWh', 'Tesla MODEL 3', 'Others', 'KIA EV6']</t>
+  </si>
+  <si>
+    <t>['Renault TWINGO']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh', 'Others', 'VW ID.4', 'SKODA ENYAQ 58kWh', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Others']</t>
+  </si>
+  <si>
+    <t>['Renault TWINGO', 'VW ID.4', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Audi Q4']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Audi Q4', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Others', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Renault TWINGO', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW ID.3', 'Hyundai KONA 39 kWh', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'Others']</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25, 0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.3, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.45, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.3, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.25, 0.4, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.45, 0.1, 0.25, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.15, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.4, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.05, 0.1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.45]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.2, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.2, 0.15, 0.45]</t>
   </si>
   <si>
     <t>[0.2, 0.3]</t>
   </si>
   <si>
-    <t>[0.25, 0.35, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.05, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.1, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.3]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.45, 0.35, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.35, 0.4, 0.25, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.45, 0.1, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.45, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.35]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.8500000000000002, 0.9500000000000003, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.65]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9000000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8500000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8500000000000002, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.6]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8500000000000002, 0.9500000000000003, 0.65]</t>
+    <t>[0.7000000000000001, 0.9500000000000003, 0.6, 0.8500000000000002]</t>
   </si>
   <si>
     <t>[0.9000000000000002]</t>
   </si>
   <si>
-    <t>[0.7500000000000001, 0.8000000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.8000000000000002, 0.9500000000000003, 0.8500000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8000000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.9500000000000003]</t>
+    <t>[0.8500000000000002, 0.7500000000000001, 1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9000000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.6]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.65, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9500000000000003, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001, 0.9500000000000003, 0.8000000000000002]</t>
   </si>
   <si>
     <t>[0.8000000000000002]</t>
   </si>
   <si>
-    <t>[0.7500000000000001, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.9000000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227, 34.20986111111112, 34.20986111111113, 42.500000000000014]</t>
-  </si>
-  <si>
-    <t>[25.6]</t>
-  </si>
-  <si>
-    <t>[23.68375, 26.315277777777787]</t>
-  </si>
-  <si>
-    <t>[31.20000000000001, 28.946805555555567, 32.50000000000001]</t>
-  </si>
-  <si>
-    <t>[37.70000000000001, 35.000000000000014]</t>
-  </si>
-  <si>
-    <t>[30.00000000000001, 36.00000000000001, 26.315277777777784]</t>
-  </si>
-  <si>
-    <t>[28.946805555555557, 31.578333333333344, 21.6]</t>
-  </si>
-  <si>
-    <t>[46.199999999999996, 60.000000000000014]</t>
-  </si>
-  <si>
-    <t>[46.200000000000024, 21.440000000000005]</t>
-  </si>
-  <si>
-    <t>[31.57833333333333, 45.0, 30.64]</t>
-  </si>
-  <si>
-    <t>[15.789166666666665]</t>
-  </si>
-  <si>
-    <t>[26.100000000000005, 34.65000000000001]</t>
-  </si>
-  <si>
-    <t>[13.005, 28.946805555555567]</t>
-  </si>
-  <si>
-    <t>[42.10444444444445, 21.05222222222223, 17.340000000000007, 34.65]</t>
-  </si>
-  <si>
-    <t>[40.000000000000014]</t>
-  </si>
-  <si>
-    <t>[14.910000000000002, 38.30000000000001, 10.560000000000004]</t>
-  </si>
-  <si>
-    <t>[31.57833333333333, 49.79]</t>
-  </si>
-  <si>
-    <t>[13.004999999999999, 7.9200000000000035, 46.75000000000002, 10.560000000000004, 19.500000000000007]</t>
-  </si>
-  <si>
-    <t>[46.75000000000001, 18.760000000000005, 19.250000000000004]</t>
-  </si>
-  <si>
-    <t>[2.6399999999999997, 11.440000000000007]</t>
-  </si>
-  <si>
-    <t>[23.683750000000007]</t>
-  </si>
-  <si>
-    <t>[46.20000000000001, 46.199999999999996]</t>
-  </si>
-  <si>
-    <t>[27.6, 38.25]</t>
-  </si>
-  <si>
-    <t>[18.400000000000006, 24.12]</t>
-  </si>
-  <si>
-    <t>[28.946805555555564, 39.47291666666668, 42.35000000000002]</t>
+    <t>[0.7000000000000001, 0.65, 0.7500000000000001, 0.9500000000000003, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 1.0, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.9000000000000002, 0.9500000000000003, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9500000000000003, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.6]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.65, 0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[28.946805555555557, 25.76000000000001, 26.315277777777776, 20.24000000000001]</t>
+  </si>
+  <si>
+    <t>[35.00000000000001]</t>
+  </si>
+  <si>
+    <t>[31.578333333333347]</t>
+  </si>
+  <si>
+    <t>[15.600000000000003, 37.50000000000001, 51.8, 31.500000000000007]</t>
+  </si>
+  <si>
+    <t>[40.500000000000014, 23.68375000000001, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[27.500000000000004, 23.683749999999996]</t>
+  </si>
+  <si>
+    <t>[26.315277777777776, 9.600000000000001]</t>
+  </si>
+  <si>
+    <t>[27.600000000000005, 10.115, 56.250000000000014]</t>
+  </si>
+  <si>
+    <t>[61.280000000000015, 42.35]</t>
+  </si>
+  <si>
+    <t>[23.12, 22.78000000000001, 28.800000000000008]</t>
+  </si>
+  <si>
+    <t>[29.000000000000014, 25.000000000000007, 28.946805555555567, 40.70000000000001]</t>
+  </si>
+  <si>
+    <t>[8.520000000000003]</t>
+  </si>
+  <si>
+    <t>[11.700000000000001, 10.526111111111112, 50.05000000000001, 40.600000000000016, 18.420694444444447]</t>
+  </si>
+  <si>
+    <t>[18.4, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[7.455000000000002, 65.45, 30.000000000000004]</t>
+  </si>
+  <si>
+    <t>[36.400000000000006, 49.790000000000006]</t>
+  </si>
+  <si>
+    <t>[65.11000000000001, 19.15, 63.75000000000002]</t>
+  </si>
+  <si>
+    <t>[13.005000000000003, 44.73597222222223, 44.73597222222224, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[9.750000000000002]</t>
+  </si>
+  <si>
+    <t>[47.367500000000014, 39.47291666666668, 39.47291666666667]</t>
+  </si>
+  <si>
+    <t>[9.585, 18.420694444444443]</t>
+  </si>
+  <si>
+    <t>[34.20986111111111, 26.1, 25.350000000000005, 38.500000000000014]</t>
+  </si>
+  <si>
+    <t>[26.1, 21.052222222222227]</t>
   </si>
 </sst>
 </file>
@@ -1140,16 +1107,16 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F8">
-        <v>131.9719444444445</v>
+        <v>101.2620833333334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1160,16 +1127,16 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F9">
-        <v>25.6</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1197,19 +1164,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>31.57833333333335</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1217,19 +1184,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="F12">
-        <v>49.99902777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1240,16 +1207,16 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F13">
-        <v>92.64680555555557</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1300,16 +1267,16 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F16">
-        <v>72.70000000000002</v>
+        <v>103.6566666666667</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1320,16 +1287,16 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F17">
-        <v>92.31527777777779</v>
+        <v>51.18375</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1620,16 +1587,16 @@
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F32">
-        <v>82.1251388888889</v>
+        <v>35.91527777777777</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1640,16 +1607,16 @@
         <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F33">
-        <v>106.2</v>
+        <v>93.96500000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1700,16 +1667,16 @@
         <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F36">
-        <v>67.64000000000003</v>
+        <v>103.63</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1720,16 +1687,16 @@
         <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F37">
-        <v>107.2183333333333</v>
+        <v>74.70000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1757,19 +1724,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="F39">
-        <v>15.78916666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1777,19 +1744,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F40">
-        <v>60.75000000000001</v>
+        <v>123.6468055555556</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1797,19 +1764,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F41">
-        <v>41.95180555555557</v>
+        <v>8.520000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2097,19 +2064,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="F56">
-        <v>115.1466666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2117,19 +2084,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F57">
-        <v>40.00000000000001</v>
+        <v>131.2968055555556</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2177,19 +2144,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F60">
-        <v>63.77000000000002</v>
+        <v>49.97833333333334</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2197,19 +2164,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F61">
-        <v>81.36833333333333</v>
+        <v>102.905</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2257,19 +2224,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>86.19000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2277,19 +2244,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F65">
-        <v>97.73500000000004</v>
+        <v>148.01</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2577,19 +2544,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F80">
-        <v>84.76000000000002</v>
+        <v>134.0552777777778</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2597,19 +2564,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E81" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F81">
-        <v>14.08000000000001</v>
+        <v>9.750000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2637,19 +2604,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="F83">
-        <v>23.68375000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2657,19 +2624,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F84">
-        <v>92.40000000000001</v>
+        <v>126.3133333333334</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2677,19 +2644,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F85">
-        <v>65.84999999999999</v>
+        <v>28.00569444444444</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2737,19 +2704,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F88">
-        <v>42.52000000000001</v>
+        <v>124.1598611111111</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2757,19 +2724,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F89">
-        <v>110.7697222222223</v>
+        <v>47.15222222222223</v>
       </c>
     </row>
     <row r="90" spans="1:6">

--- a/output/df_structured.xlsx
+++ b/output/df_structured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="231">
   <si>
     <t>timestamp</t>
   </si>
@@ -334,433 +334,379 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Others', 'Fiat 500 E', 'Smart FORTWO', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['Opel CORSA']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'VW ID.3', 'Others', 'Renault TWINGO']</t>
+    <t>['Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Hyundai KONA 39 kWh', 'Fiat 500 E']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Others', 'TESLA MODEL Y', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Peugeot 208']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Others', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING', 'VW E-UP', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Opel CORSA']</t>
-  </si>
-  <si>
-    <t>['Renault TWINGO']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'SKODA ENYAQ 58kWh', 'Others']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING']</t>
+    <t>['Others', 'VW E-UP', 'VW ID.3']</t>
+  </si>
+  <si>
+    <t>['Others', 'Hyundai KONA 39 kWh', 'KIA EV6']</t>
+  </si>
+  <si>
+    <t>['Others', 'SKODA ENYAQ 77kWh', 'Polestar 2']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'Hyundai KONA 64 kWh', 'Hyundai IONIQ5 77kWh']</t>
+  </si>
+  <si>
+    <t>['VW ID.4']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Fiat 500 E', 'Audi Q4']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Others', 'VW ID.5']</t>
+  </si>
+  <si>
+    <t>['Opel MOKKA', 'Tesla MODEL 3', 'Renault ZOE', 'Others', 'Audi E-TRON']</t>
   </si>
   <si>
     <t>['Others', 'Others']</t>
   </si>
   <si>
-    <t>['Opel CORSA', 'Audi E-TRON', 'Audi E-TRON']</t>
+    <t>['Hyundai KONA 64 kWh', 'TESLA MODEL Y', 'Audi E-TRON', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Hyundai KONA 64 kWh', 'Others']</t>
   </si>
   <si>
     <t>['Others', 'MINI Cooper SE']</t>
   </si>
   <si>
-    <t>['Others', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 77kWh', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Peugeot 208']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'VW ID.3', 'Others', 'Others', 'Others']</t>
+    <t>['Polestar 2', 'Audi Q4', 'Others', 'VW ID.4', 'KIA EV6']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Hyundai KONA 39 kWh']</t>
   </si>
   <si>
     <t>['VW ID.3']</t>
   </si>
   <si>
-    <t>['Hyundai KONA 64 kWh', 'Hyundai IONIQ5 77kWh']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'VW ID.3']</t>
-  </si>
-  <si>
-    <t>['Audi Q4', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Audi Q4']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Others', 'Fiat 500 E', 'VW E-UP']</t>
-  </si>
-  <si>
-    <t>['Others', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'SKODA ENYAQ 58kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'TESLA MODEL Y', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'Others']</t>
-  </si>
-  <si>
-    <t>['Peugeot 208', 'Others']</t>
+    <t>['Dacia SPRING', 'Others']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'VW E-UP', 'Others', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Others', 'Audi Q4', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW ID.5', 'Others']</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.1, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.15]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.2, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.15, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.25, 0.35]</t>
   </si>
   <si>
     <t>[0.25]</t>
   </si>
   <si>
-    <t>[0.2, 0.25, 0.35, 0.25]</t>
+    <t>[0.2, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.05, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.2, 0.25, 0.2, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.05, 0.25, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.4, 0.2, 0.15, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.45]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.4999999999999999, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.2, 0.35, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.25, 0.3]</t>
   </si>
   <si>
     <t>[0.2, 0.25]</t>
   </si>
   <si>
-    <t>[0.4]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.2, 0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.3]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.25, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.25, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.1, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.05]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.15]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.25, 0.1, 0.25, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.4999999999999999, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.35, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.3, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.25, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.4999999999999999]</t>
+    <t>[0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.8500000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9500000000000003, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8500000000000002, 0.7000000000000001]</t>
   </si>
   <si>
     <t>[0.7500000000000001]</t>
   </si>
   <si>
-    <t>[0.8000000000000002, 0.8000000000000002, 1.0, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.6, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.65, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.7500000000000001, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.9000000000000002, 0.7500000000000001]</t>
+    <t>[0.7000000000000001, 0.9000000000000002, 0.9500000000000003, 0.8500000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 1.0, 0.9000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.7000000000000001, 0.8500000000000002, 0.7000000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.6]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8500000000000002, 0.8500000000000002, 0.9500000000000003]</t>
   </si>
   <si>
     <t>[0.9500000000000003]</t>
   </si>
   <si>
-    <t>[0.9000000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.7500000000000001, 0.9000000000000002, 0.65, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.6]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.7500000000000001, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.7000000000000001, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.7000000000000001, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 1.0]</t>
-  </si>
-  <si>
-    <t>[12.000000000000004]</t>
-  </si>
-  <si>
-    <t>[31.578333333333337, 13.200000000000003, 11.440000000000001, 31.20000000000001]</t>
-  </si>
-  <si>
-    <t>[20.100000000000005, 42.50000000000001]</t>
-  </si>
-  <si>
-    <t>[18.000000000000007]</t>
-  </si>
-  <si>
-    <t>[46.20000000000002, 15.600000000000009]</t>
-  </si>
-  <si>
-    <t>[14.719999999999997, 46.400000000000006, 42.10444444444445, 17.040000000000003]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227]</t>
-  </si>
-  <si>
-    <t>[39.47291666666668, 52.50000000000002, 36.84138888888889]</t>
-  </si>
-  <si>
-    <t>[39.47291666666666, 33.75]</t>
-  </si>
-  <si>
-    <t>[13.200000000000003]</t>
+    <t>[0.65, 0.9500000000000003, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.65, 1.0]</t>
+  </si>
+  <si>
+    <t>[10.560000000000002]</t>
+  </si>
+  <si>
+    <t>[40.000000000000014, 16.800000000000004]</t>
+  </si>
+  <si>
+    <t>[16.799999999999997, 31.20000000000001, 16.800000000000008]</t>
   </si>
   <si>
     <t>[34.20986111111112]</t>
   </si>
   <si>
-    <t>[14.450000000000006, 21.052222222222223, 31.200000000000003]</t>
-  </si>
-  <si>
-    <t>[12.060000000000002, 25.76000000000001, 42.104444444444454]</t>
-  </si>
-  <si>
-    <t>[26.315277777777784, 20.250000000000007]</t>
-  </si>
-  <si>
-    <t>[10.650000000000006]</t>
-  </si>
-  <si>
-    <t>[22.500000000000007]</t>
-  </si>
-  <si>
-    <t>[38.25000000000001, 37.70000000000001, 28.946805555555567]</t>
-  </si>
-  <si>
-    <t>[25.46]</t>
-  </si>
-  <si>
-    <t>[36.8413888888889, 21.05222222222223]</t>
-  </si>
-  <si>
-    <t>[31.500000000000007, 55.25000000000002, 29.750000000000007]</t>
+    <t>[21.052222222222227, 29.439999999999998, 43.5]</t>
+  </si>
+  <si>
+    <t>[21.052222222222223, 27.300000000000008, 48.10000000000001]</t>
+  </si>
+  <si>
+    <t>[39.47291666666666, 57.75, 37.500000000000014]</t>
+  </si>
+  <si>
+    <t>[40.599999999999994, 54.40000000000002, 53.90000000000002]</t>
+  </si>
+  <si>
+    <t>[42.35000000000001]</t>
+  </si>
+  <si>
+    <t>[35.00000000000001, 34.20986111111113]</t>
+  </si>
+  <si>
+    <t>[41.6, 18.000000000000004, 65.11000000000001]</t>
+  </si>
+  <si>
+    <t>[65.11000000000001, 39.47291666666668, 46.20000000000001]</t>
+  </si>
+  <si>
+    <t>[26.315277777777784]</t>
+  </si>
+  <si>
+    <t>[20.250000000000004, 35.00000000000001, 36.40000000000001, 34.20986111111112, 34.000000000000014]</t>
+  </si>
+  <si>
+    <t>[26.315277777777787]</t>
+  </si>
+  <si>
+    <t>[26.315277777777787, 36.841388888888886]</t>
+  </si>
+  <si>
+    <t>[44.80000000000001, 71.25, 55.25000000000002, 10.8]</t>
+  </si>
+  <si>
+    <t>[26.00000000000001]</t>
+  </si>
+  <si>
+    <t>[17.340000000000003, 27.300000000000008]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 32.000000000000014, 36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[39.47291666666668, 15.895000000000003]</t>
+  </si>
+  <si>
+    <t>[63.75, 22.98, 34.20986111111112, 42.35, 40.70000000000002]</t>
+  </si>
+  <si>
+    <t>[7.040000000000004]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[31.578333333333347, 26.315277777777784, 14.400000000000006]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[52.500000000000014, 29.250000000000007]</t>
+  </si>
+  <si>
+    <t>[37.70000000000002]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 47.3675]</t>
+  </si>
+  <si>
+    <t>[20.100000000000005, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[34.0]</t>
+  </si>
+  <si>
+    <t>[41.600000000000016, 23.92, 26.315277777777787, 52.50000000000002]</t>
   </si>
   <si>
     <t>[44.73597222222224]</t>
   </si>
   <si>
-    <t>[36.8413888888889, 18.785000000000004]</t>
-  </si>
-  <si>
-    <t>[28.946805555555567, 46.75000000000001]</t>
-  </si>
-  <si>
-    <t>[57.75, 14.400000000000002]</t>
-  </si>
-  <si>
-    <t>[36.000000000000014]</t>
-  </si>
-  <si>
-    <t>[42.10444444444445]</t>
-  </si>
-  <si>
-    <t>[6.0, 29.000000000000007, 42.104444444444454, 21.052222222222223, 31.578333333333337]</t>
-  </si>
-  <si>
-    <t>[34.800000000000004]</t>
-  </si>
-  <si>
-    <t>[9.600000000000009, 46.200000000000024]</t>
-  </si>
-  <si>
-    <t>[37.5, 11.599999999999998]</t>
-  </si>
-  <si>
-    <t>[57.449999999999996, 21.052222222222227, 26.315277777777784]</t>
-  </si>
-  <si>
-    <t>[57.449999999999996]</t>
-  </si>
-  <si>
-    <t>[54.4, 10.560000000000002]</t>
-  </si>
-  <si>
-    <t>[36.841388888888886, 9.600000000000001, 18.400000000000006]</t>
-  </si>
-  <si>
-    <t>[15.789166666666668, 45.00000000000001]</t>
-  </si>
-  <si>
-    <t>[33.75000000000001, 12.000000000000005]</t>
-  </si>
-  <si>
-    <t>[26.315277777777784, 27.500000000000007]</t>
-  </si>
-  <si>
-    <t>[15.895000000000003]</t>
-  </si>
-  <si>
-    <t>[35.0, 40.599999999999994]</t>
-  </si>
-  <si>
-    <t>[44.735972222222216, 33.75000000000001, 36.40000000000001]</t>
-  </si>
-  <si>
-    <t>[38.250000000000014, 15.789166666666672]</t>
-  </si>
-  <si>
-    <t>[27.000000000000014, 26.315277777777784]</t>
+    <t>[40.600000000000016]</t>
+  </si>
+  <si>
+    <t>[15.789166666666668, 53.62000000000002, 23.683750000000007]</t>
+  </si>
+  <si>
+    <t>[34.65, 39.47291666666666]</t>
+  </si>
+  <si>
+    <t>[23.683750000000007]</t>
   </si>
 </sst>
 </file>
@@ -1249,19 +1195,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1269,19 +1215,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>56.80000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1289,19 +1235,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F9">
-        <v>87.41833333333335</v>
+        <v>64.80000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1309,19 +1255,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F10">
-        <v>62.60000000000001</v>
+        <v>34.20986111111112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1329,19 +1275,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F11">
-        <v>18.00000000000001</v>
+        <v>93.99222222222222</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1349,19 +1295,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F12">
-        <v>61.80000000000003</v>
+        <v>96.45222222222225</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1369,19 +1315,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F13">
-        <v>120.2644444444445</v>
+        <v>34.20986111111112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1449,19 +1395,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="F17">
-        <v>21.05222222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1469,19 +1415,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F18">
-        <v>128.8143055555556</v>
+        <v>134.7229166666667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1489,19 +1435,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F19">
-        <v>73.22291666666666</v>
+        <v>148.9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1509,19 +1455,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>42.35000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1529,19 +1475,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="F21">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1729,19 +1675,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F31">
-        <v>34.20986111111112</v>
+        <v>69.20986111111114</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1749,19 +1695,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F32">
-        <v>66.70222222222223</v>
+        <v>124.71</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1769,19 +1715,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F33">
-        <v>79.92444444444446</v>
+        <v>150.7829166666667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1789,19 +1735,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>46.56527777777779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1809,19 +1755,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="F35">
-        <v>10.65000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1829,19 +1775,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F36">
-        <v>22.50000000000001</v>
+        <v>26.31527777777778</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1849,19 +1795,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F37">
-        <v>104.8968055555556</v>
+        <v>159.8598611111112</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1889,19 +1835,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>26.31527777777779</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1929,19 +1875,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="F41">
-        <v>25.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1949,19 +1895,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F42">
-        <v>57.89361111111113</v>
+        <v>63.15666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1969,19 +1915,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F43">
-        <v>116.5</v>
+        <v>182.1000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1989,19 +1935,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F44">
-        <v>44.73597222222224</v>
+        <v>26.00000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2209,19 +2155,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F55">
-        <v>55.6263888888889</v>
+        <v>44.64000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2229,19 +2175,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F56">
-        <v>75.69680555555557</v>
+        <v>31.57833333333334</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2249,19 +2195,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F57">
-        <v>72.15000000000001</v>
+        <v>105.6827777777778</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2269,19 +2215,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F58">
-        <v>36.00000000000001</v>
+        <v>26.00000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2309,19 +2255,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="F60">
-        <v>42.10444444444445</v>
+        <v>55.36791666666668</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2329,19 +2275,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F61">
-        <v>129.735</v>
+        <v>203.9898611111111</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2349,19 +2295,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="F62">
-        <v>34.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2389,19 +2335,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>7.040000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2409,19 +2355,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="F65">
-        <v>55.80000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2429,19 +2375,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F66">
-        <v>49.09999999999999</v>
+        <v>68.41972222222223</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2449,19 +2395,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F67">
-        <v>104.8175</v>
+        <v>72.29361111111113</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2469,19 +2415,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F68">
-        <v>57.45</v>
+        <v>36.84138888888889</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2669,19 +2615,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>81.75000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2689,19 +2635,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F79">
-        <v>64.96000000000001</v>
+        <v>37.70000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2709,19 +2655,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F80">
-        <v>64.8413888888889</v>
+        <v>78.94583333333334</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2729,19 +2675,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E81" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F81">
-        <v>60.78916666666667</v>
+        <v>59.57291666666669</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2769,19 +2715,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F83">
-        <v>45.75000000000001</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2789,19 +2735,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F84">
-        <v>53.81527777777779</v>
+        <v>144.3352777777778</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2809,19 +2755,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F85">
-        <v>15.895</v>
+        <v>44.73597222222224</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2829,19 +2775,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="F86">
-        <v>75.59999999999999</v>
+        <v>40.60000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2889,19 +2835,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>26.31527777777779</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2909,19 +2855,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F90">
-        <v>114.8859722222222</v>
+        <v>93.0929166666667</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2929,19 +2875,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F91">
-        <v>54.03916666666669</v>
+        <v>74.12291666666667</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2949,19 +2895,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F92">
-        <v>53.31527777777779</v>
+        <v>23.68375000000001</v>
       </c>
     </row>
     <row r="93" spans="1:6">
